--- a/Data/June 14.xlsx
+++ b/Data/June 14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaleighdavis/Projects/TEAMM/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B989123-E84A-0A49-9BEE-421CB3043B0D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8C17D3-AD80-0647-B80E-33371E51ADA0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="460" windowWidth="22300" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C36" s="1">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E36" s="6">
         <v>2</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="6">
         <v>4</v>
